--- a/02.编码/正式服务器信息/光明服务器地址_20190107.xlsx
+++ b/02.编码/正式服务器信息/光明服务器地址_20190107.xlsx
@@ -30,9 +30,6 @@
     <t>192.168.189.237 Administrator gmxqZXSP@2017.237</t>
   </si>
   <si>
-    <t>地址：https://61.144.225.148</t>
-  </si>
-  <si>
     <t>VPN信息：</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -46,6 +43,14 @@
   </si>
   <si>
     <t>光明系统web服务：</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>192.168.189.235 Administrator gmxqZXSP@2017.235 远程连接TeamView：425867179/Passw0rd 8081</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>地址：https://61.144.225.148</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -78,12 +83,8 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>Passw0rd.szcshl.szgm2018</t>
+      <t>szgm.2018</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>192.168.189.235 Administrator gmxqZXSP@2017.235 远程连接TeamView：425867179/Passw0rd 8081</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -739,7 +740,7 @@
   <dimension ref="A1:A23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A9:A11"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -749,17 +750,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-    </row>
     <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:1">
@@ -769,7 +770,7 @@
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:1">
@@ -788,17 +789,17 @@
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="3" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="14.25">
       <c r="A23" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
